--- a/Iteration 5/6. ERROR LOGS/defect_log #5.xlsx
+++ b/Iteration 5/6. ERROR LOGS/defect_log #5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 4\6. ERROR LOGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\ICT Courses material\BCPR280 Software Engineering 2\BCPR280_Software_Engineering_2_Assignment1\Iteration 5\6. ERROR LOGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F799A73-245D-41B1-8530-1C61A67DDC85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D4BFD-2C5B-4898-9E94-B38616614042}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="432" windowWidth="19872" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>PSP Defect Recording Log</t>
   </si>
@@ -613,62 +613,56 @@
     <t>NA</t>
   </si>
   <si>
-    <t>5 min</t>
-  </si>
-  <si>
     <t>2 min</t>
   </si>
   <si>
     <t>3 min</t>
   </si>
   <si>
-    <t>didn't add setup()</t>
-  </si>
-  <si>
-    <t>didn't initialise coldCounter value</t>
-  </si>
-  <si>
-    <t>didn't initialise coolCounter value</t>
-  </si>
-  <si>
-    <t>didn't initialise warmCounter value</t>
-  </si>
-  <si>
-    <t>didn't initialise hotCounter value</t>
-  </si>
-  <si>
-    <t>Forget to add  viewModel2.methods = { ...viewModel.methods }</t>
-  </si>
-  <si>
-    <t>did not add counter++</t>
-  </si>
-  <si>
-    <t>if (theGuesser2.compareNumber()) === `Cold`) should be
-if (answer === `Cold`)</t>
-  </si>
-  <si>
-    <t>if (theGuesser2.compareNumber()) === `Cool`) should be
-if (answer === `Cool`)</t>
-  </si>
-  <si>
-    <t>if (theGuesser2.compareNumber()) === `Warm`) should be
-if (answer === `Warm`)</t>
-  </si>
-  <si>
-    <t>if (theGuesser2.compareNumber()) === `Hot`) should be
-if (answer === `Hot`)</t>
-  </si>
-  <si>
     <t>Mike's example</t>
   </si>
   <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
     <t>MI-OM</t>
+  </si>
+  <si>
+    <t>Forget to call super() in child class</t>
+  </si>
+  <si>
+    <t>viewModle2.guesser = new Guesser2() should be
+viewModle2.data.guesser = new Guesser2()</t>
+  </si>
+  <si>
+    <t>super.inputNumber() should be super.inputNumber</t>
+  </si>
+  <si>
+    <t>Forget to call setup()</t>
+  </si>
+  <si>
+    <t>Missing space before function parentheses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strings must use singlequote. </t>
+  </si>
+  <si>
+    <t>super.inputNumber should be
+return super.inputNumber</t>
+  </si>
+  <si>
+    <t>inputNumber = input should be
+super.inputNumber =input</t>
+  </si>
+  <si>
+    <t>document.getElementById("numberInputBox1").value
+document.getElementById("numberInputBox2").value</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>Forget to call setup() in html file</t>
+  </si>
+  <si>
+    <t>MI-TY</t>
   </si>
 </sst>
 </file>
@@ -922,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,13 +1397,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
@@ -1415,24 +1412,24 @@
         <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -1441,24 +1438,24 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1467,24 +1464,24 @@
         <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1493,24 +1490,24 @@
         <v>65</v>
       </c>
       <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>74</v>
+      <c r="H10" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -1519,24 +1516,24 @@
         <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
@@ -1545,24 +1542,24 @@
         <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>69</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -1571,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
@@ -1580,15 +1577,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B14">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1597,24 +1594,24 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H14" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -1623,24 +1620,24 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>81</v>
+      <c r="H15" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -1649,7 +1646,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
@@ -1658,15 +1655,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
-        <v>43338</v>
+        <v>43353</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
@@ -1675,13 +1672,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
